--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2349032.449801062</v>
+        <v>2346534.714450611</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9598184.93740941</v>
+        <v>9598184.937409412</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34.97861368602199</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359322</v>
+        <v>119.3310866359321</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916698</v>
+        <v>1.36059768091647</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459284</v>
+        <v>155.1464635459283</v>
       </c>
       <c r="T2" t="n">
-        <v>162.9880024673182</v>
+        <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
         <v>251.156519019379</v>
@@ -753,10 +753,10 @@
         <v>136.0785727665282</v>
       </c>
       <c r="H3" t="n">
-        <v>98.51394015369115</v>
+        <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370742</v>
+        <v>44.34001494201961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353362</v>
+        <v>21.62032152353349</v>
       </c>
       <c r="S3" t="n">
-        <v>148.1873837356351</v>
+        <v>148.187383735635</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.6100444894001</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
-        <v>223.4144181712553</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2611846170395</v>
+        <v>15.37722628365951</v>
       </c>
       <c r="V4" t="n">
-        <v>38.53568947358082</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>136.333859607074</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>3.779414041515992</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>18.05147856206613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>80.35488047894562</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>40.71877314719677</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>178.8355469755635</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>81.31588186383607</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>98.72860659578222</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754465</v>
       </c>
       <c r="G13" t="n">
-        <v>20.92847288552894</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>59.31005804030229</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.45282559760447</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>245.8796921214435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>51.36569740310371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>42.53134576113764</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057027</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1001.332935991189</v>
+        <v>951.0716459530283</v>
       </c>
       <c r="C2" t="n">
-        <v>1001.332935991189</v>
+        <v>915.7397129368445</v>
       </c>
       <c r="D2" t="n">
-        <v>1001.332935991189</v>
+        <v>915.7397129368445</v>
       </c>
       <c r="E2" t="n">
-        <v>1001.332935991189</v>
+        <v>915.7397129368445</v>
       </c>
       <c r="F2" t="n">
-        <v>590.3470312015811</v>
+        <v>908.7942121876411</v>
       </c>
       <c r="G2" t="n">
-        <v>173.2373706870192</v>
+        <v>491.6845516730792</v>
       </c>
       <c r="H2" t="n">
-        <v>173.2373706870192</v>
+        <v>173.237370687019</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.1151908308849</v>
+        <v>72.11519083088521</v>
       </c>
       <c r="K2" t="n">
-        <v>151.9506691118213</v>
+        <v>472.8546275572751</v>
       </c>
       <c r="L2" t="n">
-        <v>699.74449813262</v>
+        <v>1022.283962163558</v>
       </c>
       <c r="M2" t="n">
-        <v>1327.697042054242</v>
+        <v>1650.23650608518</v>
       </c>
       <c r="N2" t="n">
-        <v>1951.178517094875</v>
+        <v>1951.178517094874</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.72675629197</v>
+        <v>2494.726756291969</v>
       </c>
       <c r="P2" t="n">
         <v>2602.377499016428</v>
@@ -4352,28 +4352,28 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2633.671635888807</v>
+        <v>2633.671635888808</v>
       </c>
       <c r="S2" t="n">
         <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2312.323690420882</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="U2" t="n">
-        <v>2058.630236865953</v>
+        <v>2008.368946827793</v>
       </c>
       <c r="V2" t="n">
-        <v>1727.567349522383</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="W2" t="n">
-        <v>1374.798694252268</v>
+        <v>1324.537404214108</v>
       </c>
       <c r="X2" t="n">
-        <v>1001.332935991189</v>
+        <v>951.0716459530283</v>
       </c>
       <c r="Y2" t="n">
-        <v>1001.332935991189</v>
+        <v>951.0716459530283</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>198.5178481733488</v>
       </c>
       <c r="H3" t="n">
-        <v>99.0088177150749</v>
+        <v>97.48881342044075</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961285</v>
+        <v>170.2762045496335</v>
       </c>
       <c r="K3" t="n">
-        <v>380.2766518524139</v>
+        <v>497.8519368624348</v>
       </c>
       <c r="L3" t="n">
-        <v>882.1470455900076</v>
+        <v>999.722330600029</v>
       </c>
       <c r="M3" t="n">
-        <v>1519.785345024896</v>
+        <v>1176.312616922418</v>
       </c>
       <c r="N3" t="n">
-        <v>2171.959224327605</v>
+        <v>1437.313937931689</v>
       </c>
       <c r="O3" t="n">
-        <v>2328.741768204646</v>
+        <v>1984.020177892692</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.773581115997</v>
+        <v>2405.797066257506</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.614013122006</v>
+        <v>207.0428185061398</v>
       </c>
       <c r="C4" t="n">
-        <v>200.614013122006</v>
+        <v>207.0428185061398</v>
       </c>
       <c r="D4" t="n">
-        <v>200.614013122006</v>
+        <v>207.0428185061398</v>
       </c>
       <c r="E4" t="n">
-        <v>52.70091953961285</v>
+        <v>207.0428185061398</v>
       </c>
       <c r="F4" t="n">
-        <v>52.70091953961285</v>
+        <v>207.0428185061398</v>
       </c>
       <c r="G4" t="n">
-        <v>52.70091953961285</v>
+        <v>207.0428185061398</v>
       </c>
       <c r="H4" t="n">
         <v>52.70091953961285</v>
@@ -4489,49 +4489,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131523</v>
+        <v>152.6313247131525</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039129</v>
+        <v>336.0342731039134</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856111</v>
+        <v>539.7960902856117</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066363</v>
+        <v>744.1475233066373</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249418</v>
+        <v>916.8828514249429</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351318</v>
+        <v>1041.167083351319</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221467</v>
+        <v>912.8607263634885</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221467</v>
+        <v>705.2494094117203</v>
       </c>
       <c r="T4" t="n">
-        <v>818.1088337555527</v>
+        <v>705.2494094117203</v>
       </c>
       <c r="U4" t="n">
-        <v>528.9561220211694</v>
+        <v>689.716857610044</v>
       </c>
       <c r="V4" t="n">
-        <v>490.0311831589666</v>
+        <v>435.0323694041571</v>
       </c>
       <c r="W4" t="n">
-        <v>200.614013122006</v>
+        <v>435.0323694041571</v>
       </c>
       <c r="X4" t="n">
-        <v>200.614013122006</v>
+        <v>207.0428185061398</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.614013122006</v>
+        <v>207.0428185061398</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.626009176457</v>
+        <v>1539.011268484874</v>
       </c>
       <c r="C5" t="n">
-        <v>959.6634922360456</v>
+        <v>1539.011268484874</v>
       </c>
       <c r="D5" t="n">
-        <v>601.3977936292952</v>
+        <v>1180.745569878124</v>
       </c>
       <c r="E5" t="n">
-        <v>601.3977936292952</v>
+        <v>794.9573172798794</v>
       </c>
       <c r="F5" t="n">
-        <v>190.4118888396876</v>
+        <v>383.9714124902719</v>
       </c>
       <c r="G5" t="n">
-        <v>52.70091953961285</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H5" t="n">
         <v>52.70091953961285</v>
@@ -4565,25 +4565,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K5" t="n">
-        <v>156.4983241075885</v>
+        <v>448.0130853828225</v>
       </c>
       <c r="L5" t="n">
-        <v>709.3115823537878</v>
+        <v>587.3417412240757</v>
       </c>
       <c r="M5" t="n">
-        <v>1341.029393337099</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N5" t="n">
-        <v>1968.337061396946</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P5" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4595,22 +4595,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.830939477471</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.830939477471</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="X5" t="n">
-        <v>2105.365181216391</v>
+        <v>1929.150600460686</v>
       </c>
       <c r="Y5" t="n">
-        <v>1715.225849240579</v>
+        <v>1539.011268484874</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>500.7885757023184</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L6" t="n">
-        <v>1005.150115568437</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M6" t="n">
-        <v>1184.647451923042</v>
+        <v>986.7313792423969</v>
       </c>
       <c r="N6" t="n">
-        <v>1430.928743686615</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439338</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.4034201934284</v>
+        <v>221.0513756813083</v>
       </c>
       <c r="C7" t="n">
-        <v>331.4672372655215</v>
+        <v>221.0513756813083</v>
       </c>
       <c r="D7" t="n">
-        <v>331.4672372655215</v>
+        <v>70.93473626897259</v>
       </c>
       <c r="E7" t="n">
-        <v>331.4672372655215</v>
+        <v>70.93473626897259</v>
       </c>
       <c r="F7" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
         <v>52.70091953961285</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>971.4690550606288</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T7" t="n">
-        <v>971.4690550606288</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="U7" t="n">
-        <v>971.4690550606288</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="V7" t="n">
-        <v>971.4690550606288</v>
+        <v>441.8439548248384</v>
       </c>
       <c r="W7" t="n">
-        <v>682.0518850236681</v>
+        <v>441.8439548248384</v>
       </c>
       <c r="X7" t="n">
-        <v>682.0518850236681</v>
+        <v>441.8439548248384</v>
       </c>
       <c r="Y7" t="n">
-        <v>682.0518850236681</v>
+        <v>221.0513756813083</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>801.0095040659444</v>
+        <v>1340.481123857273</v>
       </c>
       <c r="C8" t="n">
-        <v>432.0469871255327</v>
+        <v>1340.481123857273</v>
       </c>
       <c r="D8" t="n">
-        <v>390.9169132394753</v>
+        <v>982.2154252505222</v>
       </c>
       <c r="E8" t="n">
-        <v>390.9169132394753</v>
+        <v>596.427172652278</v>
       </c>
       <c r="F8" t="n">
-        <v>383.9714124902719</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G8" t="n">
-        <v>370.9240347671034</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
@@ -4808,19 +4808,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>1032.36013938198</v>
+        <v>1186.570704417539</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.059552207387</v>
+        <v>1373.270117242947</v>
       </c>
       <c r="N8" t="n">
-        <v>1413.39376509937</v>
+        <v>2000.577785302793</v>
       </c>
       <c r="O8" t="n">
-        <v>1960.554969866447</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P8" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4829,25 +4829,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V8" t="n">
-        <v>2303.983089637072</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="W8" t="n">
-        <v>1951.214434366958</v>
+        <v>1911.262422475068</v>
       </c>
       <c r="X8" t="n">
-        <v>1577.748676105878</v>
+        <v>1730.620455833084</v>
       </c>
       <c r="Y8" t="n">
-        <v>1187.609344130066</v>
+        <v>1340.481123857273</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K9" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.150115568437</v>
+        <v>519.3589218611166</v>
       </c>
       <c r="M9" t="n">
-        <v>1645.695465035541</v>
+        <v>1159.904271328221</v>
       </c>
       <c r="N9" t="n">
-        <v>2136.130580724115</v>
+        <v>1812.07815063093</v>
       </c>
       <c r="O9" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P9" t="n">
         <v>2404.332520920175</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>468.5388921327079</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C10" t="n">
-        <v>299.602709204801</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>299.602709204801</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>299.602709204801</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>152.7127617068907</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>152.7127617068907</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961285</v>
@@ -4987,25 +4987,25 @@
         <v>922.1576397183603</v>
       </c>
       <c r="S10" t="n">
-        <v>922.1576397183603</v>
+        <v>822.4317744700954</v>
       </c>
       <c r="T10" t="n">
-        <v>696.5284430307253</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="U10" t="n">
-        <v>696.5284430307253</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="V10" t="n">
-        <v>696.5284430307253</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W10" t="n">
-        <v>696.5284430307253</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="X10" t="n">
-        <v>468.5388921327079</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y10" t="n">
-        <v>468.5388921327079</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474266</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>261.8464821474266</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
-        <v>114.9565346495163</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,28 +5255,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,7 +5285,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349513</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.665004989558</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.574735228845</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2526.197884723913</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.974531143473</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>701.0383482155661</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>550.9217088032303</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>403.0086152208372</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>403.0086152208372</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.8125159357172</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038357</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797759</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235167</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258108</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258108</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052221</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.40512601526</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117243</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.622995973713</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5516,28 +5516,28 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>295.5818533952732</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098242</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819173</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695815</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>516.3896878871884</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>369.499740389278</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640064</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,58 +6929,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,64 +7160,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998291</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>416.009188706528</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>111.5494859968929</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.328121188872984</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.1122511579964</v>
+        <v>65.98845490199776</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>180.3364297980558</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>125.3627396513949</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>184.4078422411148</v>
       </c>
       <c r="N6" t="n">
-        <v>48.10560617263525</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,25 +8456,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>250.7308605730627</v>
+        <v>406.4991080837287</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,25 +8529,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>294.725630339302</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>8.862918322875913</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-2.230370853753821e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-1.204770029246527e-12</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-3.824271744423714e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.246218624869926e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.3624843553866</v>
       </c>
       <c r="G13" t="n">
-        <v>144.5956654067399</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856364</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>80.98465480592156</v>
+        <v>140.2947128462256</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532677</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>6.257951202384504</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>138.4949402405069</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333447</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393025</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>881091.6054153848</v>
+        <v>881091.6054153846</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813246.0393401294</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>813246.0393401294</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.327398213</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="I2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675041</v>
-      </c>
       <c r="L2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675048</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918869</v>
+        <v>787455.5478918878</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008500592</v>
+        <v>4906.24700849981</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765847</v>
+        <v>775688.3472765845</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909054</v>
+        <v>190891.9800909052</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26424,40 +26424,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707353</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707366</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.424496707368</v>
       </c>
-      <c r="G4" t="n">
-        <v>6897.424496707326</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707343</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.42449670733</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707328</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707331</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707328</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707423</v>
-      </c>
       <c r="N4" t="n">
-        <v>6897.424496707311</v>
+        <v>6897.424496707392</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707334</v>
+        <v>6897.42449670737</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707368</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051734</v>
+        <v>86500.62127051735</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-449066.8218550973</v>
+        <v>-449066.821855098</v>
       </c>
       <c r="C6" t="n">
-        <v>334365.1901306174</v>
+        <v>334365.1901306188</v>
       </c>
       <c r="D6" t="n">
-        <v>339271.437139118</v>
+        <v>339271.4371391182</v>
       </c>
       <c r="E6" t="n">
-        <v>-278348.3518296946</v>
+        <v>-278383.0897551302</v>
       </c>
       <c r="F6" t="n">
-        <v>497339.9954468901</v>
+        <v>497305.2575214542</v>
       </c>
       <c r="G6" t="n">
-        <v>497339.9954468897</v>
+        <v>497305.2575214537</v>
       </c>
       <c r="H6" t="n">
-        <v>497339.9954468898</v>
+        <v>497305.2575214541</v>
       </c>
       <c r="I6" t="n">
-        <v>497339.9954468902</v>
+        <v>497305.2575214539</v>
       </c>
       <c r="J6" t="n">
-        <v>324979.0030466092</v>
+        <v>324944.2651211732</v>
       </c>
       <c r="K6" t="n">
-        <v>497339.9954468898</v>
+        <v>497305.2575214541</v>
       </c>
       <c r="L6" t="n">
-        <v>497339.99544689</v>
+        <v>497305.257521454</v>
       </c>
       <c r="M6" t="n">
-        <v>369262.3986311759</v>
+        <v>369227.6607057402</v>
       </c>
       <c r="N6" t="n">
-        <v>497339.9954468905</v>
+        <v>497305.257521454</v>
       </c>
       <c r="O6" t="n">
-        <v>497339.9954468895</v>
+        <v>497305.2575214539</v>
       </c>
       <c r="P6" t="n">
-        <v>497339.9954468897</v>
+        <v>497305.2575214538</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225491</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26796,16 +26796,16 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225491</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
-        <v>5.38791591551588</v>
+        <v>5.387915915515022</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.946793854488</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.946793854488</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>330.2942780849855</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761996</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>49.75867713777916</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.50480425168783</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.504804251687737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775205</v>
+        <v>18.38275699775194</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894002</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822505</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>270.88395833338</v>
       </c>
       <c r="V4" t="n">
-        <v>213.6019538502472</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>276.5830443388628</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>365.951686636953</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>127.3695694608651</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>125.011001421173</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>313.9642684734862</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>190.8955537029055</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>71.39621480539648</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>106.6372753043364</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.105823316955884e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718789</v>
+        <v>2.364173605718793</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956755</v>
+        <v>24.21209293956759</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447369</v>
+        <v>91.14480293447383</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683752</v>
+        <v>200.6562795683755</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984516</v>
+        <v>300.7317482984521</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844681</v>
+        <v>373.0843262844687</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451696</v>
+        <v>415.1281986451702</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024181</v>
+        <v>421.8454069024187</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105519</v>
+        <v>398.3366556105525</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193693</v>
+        <v>339.9711197193698</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.304152464565</v>
+        <v>255.3041524645654</v>
       </c>
       <c r="R2" t="n">
-        <v>148.508520260233</v>
+        <v>148.5085202602332</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031695</v>
+        <v>53.87360604031704</v>
       </c>
       <c r="T2" t="n">
-        <v>10.349169959034</v>
+        <v>10.34916995903402</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575031</v>
+        <v>0.1891338884575034</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682464</v>
+        <v>1.264944396682466</v>
       </c>
       <c r="H3" t="n">
-        <v>12.21669983111749</v>
+        <v>12.2166998311175</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770765</v>
+        <v>43.55181365770773</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777937</v>
+        <v>119.5095054777939</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555188</v>
+        <v>204.2607800555191</v>
       </c>
       <c r="L3" t="n">
-        <v>274.65382613055</v>
+        <v>274.6538261305504</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102892</v>
+        <v>320.5080605102897</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704976</v>
+        <v>328.9909551704981</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808493</v>
+        <v>300.9624503808498</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489523</v>
+        <v>241.5488997489527</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361686</v>
+        <v>161.4690426361689</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910951</v>
+        <v>78.53751262910964</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820277</v>
+        <v>23.49578736820281</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908702</v>
+        <v>5.09861359890871</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753057</v>
+        <v>0.08322002609753071</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942302</v>
+        <v>1.060486889942303</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577925</v>
+        <v>9.428692530577939</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753759</v>
+        <v>31.89173301753764</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892072</v>
+        <v>74.97642311892083</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314783</v>
+        <v>123.2092950314785</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646946</v>
+        <v>157.6654781646948</v>
       </c>
       <c r="M4" t="n">
-        <v>166.23614039341</v>
+        <v>166.2361403934103</v>
       </c>
       <c r="N4" t="n">
-        <v>162.283416530898</v>
+        <v>162.2834165308982</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983901</v>
+        <v>149.8950014983903</v>
       </c>
       <c r="P4" t="n">
-        <v>128.261068943567</v>
+        <v>128.2610689435672</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780491</v>
+        <v>88.80131584780506</v>
       </c>
       <c r="R4" t="n">
-        <v>47.6833468877693</v>
+        <v>47.68334688776937</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472174</v>
+        <v>18.48139425472177</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026196</v>
+        <v>4.531171257026203</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139833</v>
+        <v>0.05784473945139842</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.1165249313363</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464759</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>324.9782573297443</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,16 +32573,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>364.3208035245826</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067208</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>364.3208035245826</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963282</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168894</v>
+        <v>19.61037504168925</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347109</v>
+        <v>404.7873098246363</v>
       </c>
       <c r="L2" t="n">
-        <v>553.3271000210088</v>
+        <v>554.9791258649318</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107293</v>
+        <v>634.29549891073</v>
       </c>
       <c r="N2" t="n">
-        <v>629.7792677178113</v>
+        <v>303.9818293027207</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516105</v>
+        <v>549.0386254516111</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239640997</v>
+        <v>108.7381239641002</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011554</v>
+        <v>32.99846259011593</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>118.762914151536</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937384</v>
+        <v>330.8845780937387</v>
       </c>
       <c r="L3" t="n">
-        <v>506.939791654135</v>
+        <v>506.9397916541354</v>
       </c>
       <c r="M3" t="n">
-        <v>644.0790903382708</v>
+        <v>178.3740265882714</v>
       </c>
       <c r="N3" t="n">
-        <v>658.7614942451606</v>
+        <v>263.6376979891625</v>
       </c>
       <c r="O3" t="n">
-        <v>158.3662059364049</v>
+        <v>552.2285252131348</v>
       </c>
       <c r="P3" t="n">
-        <v>287.9109221326779</v>
+        <v>426.0372609745597</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014709</v>
+        <v>231.5645562859964</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055954</v>
+        <v>100.9398032055956</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250107</v>
+        <v>185.255503425011</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552506</v>
+        <v>205.8200173552509</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101266</v>
+        <v>206.4155889101268</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124298</v>
+        <v>174.48012941243</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084605</v>
+        <v>125.5396282084607</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.63927259611053</v>
+        <v>2.639272596110672</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>208.7598654843165</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>365.7182830033419</v>
       </c>
       <c r="N6" t="n">
-        <v>248.7689815793672</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35033,7 +35033,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>391.4668765743286</v>
+        <v>547.2351240849946</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>495.389005746034</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>169.9864664731392</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.13475084531481</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096363</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.560998372117</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>187.1368183553853</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.3390294385611</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902925</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>224.3390294385611</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.348781916454</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
